--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1382.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1382.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.301247621065978</v>
+        <v>1.211271643638611</v>
       </c>
       <c r="B1">
-        <v>2.545271027566265</v>
+        <v>2.415652513504028</v>
       </c>
       <c r="C1">
-        <v>3.27942899333245</v>
+        <v>7.065585136413574</v>
       </c>
       <c r="D1">
-        <v>3.33120767665277</v>
+        <v>2.268170833587646</v>
       </c>
       <c r="E1">
-        <v>1.072871381190138</v>
+        <v>1.168520212173462</v>
       </c>
     </row>
   </sheetData>
